--- a/问题2/分析结果/附件1/条纹间隔_附件1.xlsx
+++ b/问题2/分析结果/附件1/条纹间隔_附件1.xlsx
@@ -447,959 +447,959 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24.93012708630885</v>
+        <v>24.90019999840639</v>
       </c>
       <c r="B2" t="n">
-        <v>2.28616868688346</v>
+        <v>2.280934265010622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.64395839942539</v>
+        <v>22.61926573339576</v>
       </c>
       <c r="B3" t="n">
-        <v>3.331232645731781</v>
+        <v>3.324508408382329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19.31272575369361</v>
+        <v>19.29475732501344</v>
       </c>
       <c r="B4" t="n">
-        <v>2.042230770945103</v>
+        <v>2.038629976174089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17.2704949827485</v>
+        <v>17.25612734883935</v>
       </c>
       <c r="B5" t="n">
-        <v>1.545046221685844</v>
+        <v>1.54259139469773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15.72544876106266</v>
+        <v>15.71353595414162</v>
       </c>
       <c r="B6" t="n">
-        <v>1.499202218218397</v>
+        <v>1.497039757480843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.22624654284426</v>
+        <v>14.21649619666077</v>
       </c>
       <c r="B7" t="n">
-        <v>2.181028795420433</v>
+        <v>2.17826759792262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.04521774742383</v>
+        <v>12.03822859873815</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2332207982264016</v>
+        <v>0.2329542382593779</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.81199694919743</v>
+        <v>11.80527436047877</v>
       </c>
       <c r="B9" t="n">
-        <v>1.659345746778333</v>
+        <v>1.657590036672257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.15265120241909</v>
+        <v>10.14768432380652</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2755714598157919</v>
+        <v>0.2753045767961204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.877079742603302</v>
+        <v>9.872379747010397</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6625705764703085</v>
+        <v>0.6619612900686445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.214509166132993</v>
+        <v>9.210418456941753</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3352887616845024</v>
+        <v>0.3349965415724512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.879220404448491</v>
+        <v>8.875421915369301</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6319541670245403</v>
+        <v>0.6314396102529223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.24726623742395</v>
+        <v>8.243982305116379</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4466378187985462</v>
+        <v>0.4462857446803321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.800628418625404</v>
+        <v>7.797696560436047</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6433237450485985</v>
+        <v>0.642860177234458</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.157304673576806</v>
+        <v>7.154836383201589</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3744844718964302</v>
+        <v>0.3742329773044988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.782820201680376</v>
+        <v>6.78060340589709</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2189395304054269</v>
+        <v>0.2187987521339938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.563880671274949</v>
+        <v>6.561804653763097</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0759647390944318</v>
+        <v>0.07591697247442841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.487915932180517</v>
+        <v>6.485887681288668</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2214900633719026</v>
+        <v>0.2213539630623833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.266425868808614</v>
+        <v>6.264533718226285</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3721769464246734</v>
+        <v>0.3719588928380082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.894248922383941</v>
+        <v>5.892574825388277</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07278845766839481</v>
+        <v>0.07274737163262479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.821460464715546</v>
+        <v>5.819827453755652</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3759703651610966</v>
+        <v>0.3757692349970601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.44549009955445</v>
+        <v>5.444058218758592</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2716651010807283</v>
+        <v>0.2715231386256782</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.173824998473721</v>
+        <v>5.172535080132914</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07001868179887083</v>
+        <v>0.06998400869923938</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.10380631667485</v>
+        <v>5.102551071433674</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09006113425725282</v>
+        <v>0.09001723056458122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.013745182417598</v>
+        <v>5.012533840869093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1538888592099372</v>
+        <v>0.1538156484677398</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.85985632320766</v>
+        <v>4.858718192401353</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04735845875358713</v>
+        <v>0.04733638760392456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.812497864454073</v>
+        <v>4.811381804797429</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03986376656066604</v>
+        <v>0.03984535574622505</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.772634097893407</v>
+        <v>4.771536449051204</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1684468658571046</v>
+        <v>0.1683707599434907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.604187232036303</v>
+        <v>4.603165689107713</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03146471078343094</v>
+        <v>0.03145079770651371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.572722521252872</v>
+        <v>4.571714891401199</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0330271983647723</v>
+        <v>0.03301269698407516</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.539695322888099</v>
+        <v>4.538702194417124</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0325535313623373</v>
+        <v>0.03253934079036114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.507141791525762</v>
+        <v>4.506162853626763</v>
       </c>
       <c r="B33" t="n">
-        <v>0.201169752785793</v>
+        <v>0.201084324689317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.305972038739969</v>
+        <v>4.305078528937446</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04423671125544093</v>
+        <v>0.04421844876510228</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.261735327484528</v>
+        <v>4.260860080172344</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02956524841912689</v>
+        <v>0.02955314793756969</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.232170079065401</v>
+        <v>4.231306932234774</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04358664960407843</v>
+        <v>0.04356896402472987</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.188583429461323</v>
+        <v>4.187737968210044</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04435430995253054</v>
+        <v>0.04433650078298079</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.144229119508792</v>
+        <v>4.143401467427063</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02714585891059684</v>
+        <v>0.02713505278566775</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.117083260598196</v>
+        <v>4.116266414641395</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02598597921416079</v>
+        <v>0.02597570131923632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.091097281384035</v>
+        <v>4.090290713322159</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03757621057348004</v>
+        <v>0.03756146359987245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.053521070810555</v>
+        <v>4.052729249722287</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02440993704688488</v>
+        <v>0.02440043013139537</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.02911113376367</v>
+        <v>4.028328819590891</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02566176178477253</v>
+        <v>0.02565343136139919</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.003449371978897</v>
+        <v>4.002675388229492</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05862795601680881</v>
+        <v>0.05860545513669457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.944821415962088</v>
+        <v>3.944069933092798</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02682661435759126</v>
+        <v>0.02681489471936693</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.917994801604497</v>
+        <v>3.917255038373431</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02792203390330483</v>
+        <v>0.02791152844315903</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.890072767701192</v>
+        <v>3.889343509930272</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02392797903239874</v>
+        <v>0.02391903607252388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.866144788668794</v>
+        <v>3.865424473857748</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02647997604827568</v>
+        <v>0.02647014359404265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.839664812620518</v>
+        <v>3.838954330263705</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02120653805962203</v>
+        <v>0.02119871243631355</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.818458274560896</v>
+        <v>3.817755617827391</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02166709465867811</v>
+        <v>0.02166058486589861</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.796791179902218</v>
+        <v>3.796095032961493</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05209554127433424</v>
+        <v>0.05207657045765091</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.744695638627884</v>
+        <v>3.744018462503842</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02484917901035066</v>
+        <v>0.02483883914516216</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.719846459617533</v>
+        <v>3.71917962335868</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01990573266797879</v>
+        <v>0.01989861561534489</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.699940726949554</v>
+        <v>3.699281007743335</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03270832856489658</v>
+        <v>0.03269671700373333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.667232398384658</v>
+        <v>3.666584290739602</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02447340186276392</v>
+        <v>0.02446610764667856</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.642758996521894</v>
+        <v>3.642118183092923</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04424000299886766</v>
+        <v>0.04422323946653961</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.598518993523026</v>
+        <v>3.597894943626383</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02171883471309899</v>
+        <v>0.02171132519373176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.576800158809927</v>
+        <v>3.576183618432652</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02571801979429411</v>
+        <v>0.02571044687307777</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.551082139015633</v>
+        <v>3.550473171559574</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01874767922084031</v>
+        <v>0.0187400194276961</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.532334459794793</v>
+        <v>3.531733152131878</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02033518748104157</v>
+        <v>0.02032828469267844</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.511999272313751</v>
+        <v>3.511404867439199</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02069001388529434</v>
+        <v>0.02068303154291984</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.491309258428457</v>
+        <v>3.490721835896279</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0187048085636623</v>
+        <v>0.01869853167586166</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.472604449864794</v>
+        <v>3.472023304220418</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03965728875761387</v>
+        <v>0.03964409221917276</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.43294716110718</v>
+        <v>3.432379212001245</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02481904820816494</v>
+        <v>0.02481086640293695</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.408128112899016</v>
+        <v>3.407568345598308</v>
       </c>
       <c r="B64" t="n">
-        <v>0.018934083574353</v>
+        <v>0.01892788170698312</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.389194029324663</v>
+        <v>3.388640463891325</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02637550315386372</v>
+        <v>0.02636692142009434</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.362818526170799</v>
+        <v>3.362273542471231</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01681611236465752</v>
+        <v>0.01681179514994158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.346002413806141</v>
+        <v>3.345461747321289</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03048666212235629</v>
+        <v>0.03047575645208633</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.315515751683785</v>
+        <v>3.314985990869203</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03357541604631065</v>
+        <v>0.03356366492486673</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.281940335637474</v>
+        <v>3.281422325944336</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01653291891760889</v>
+        <v>0.01652877943086706</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.265407416719865</v>
+        <v>3.264893546513469</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01738554324136077</v>
+        <v>0.01738008638205502</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.248021873478505</v>
+        <v>3.247513460131414</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01518765741978845</v>
+        <v>0.01518291425219909</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.232834216058716</v>
+        <v>3.232330545879215</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01753970311956765</v>
+        <v>0.01753425305370815</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3.215294512939149</v>
+        <v>3.214796292825507</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01932092830002041</v>
+        <v>0.01931495906994352</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.195973584639128</v>
+        <v>3.195481333755563</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01714307002779281</v>
+        <v>0.01713780376646179</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3.178830514611335</v>
+        <v>3.178343529989101</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01647819251183691</v>
+        <v>0.01647415693088439</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.162352322099498</v>
+        <v>3.161869373058217</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01535381912668621</v>
+        <v>0.01534815118851007</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.146998502972812</v>
+        <v>3.146521221869707</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01709531400835029</v>
+        <v>0.01709014305154311</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.129903188964462</v>
+        <v>3.129431078818164</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01457336743859194</v>
+        <v>0.01456898155036512</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.11532982152587</v>
+        <v>3.114862097267799</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01397378461229026</v>
+        <v>0.01396959838877132</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.10135603691358</v>
+        <v>3.100892498879027</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01384993908903676</v>
+        <v>0.01384580853265449</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3.087506097824543</v>
+        <v>3.087046690346373</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01691128062012304</v>
+        <v>0.01690626212318591</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3.07059481720442</v>
+        <v>3.070140428223187</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01537788152590203</v>
+        <v>0.01537334199444373</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.055216935678518</v>
+        <v>3.054767086228743</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01433347388813111</v>
+        <v>0.01432926318222449</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3.040883461790387</v>
+        <v>3.040437823046519</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01331533469549928</v>
+        <v>0.01331235717190937</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.027568127094888</v>
+        <v>3.027125465874609</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01320014209438281</v>
+        <v>0.01319538242189955</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3.014367985000505</v>
+        <v>3.01393008345271</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01698889327830688</v>
+        <v>0.01698307337187899</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.997379091722198</v>
+        <v>2.996947010080831</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0210743466888319</v>
+        <v>0.02106917819828746</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.976304745033366</v>
+        <v>2.975877831882543</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01275785357178894</v>
+        <v>0.01275420177163644</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.963546891461577</v>
+        <v>2.963123630110907</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01432685693800728</v>
+        <v>0.01432277472275478</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.94922003452357</v>
+        <v>2.948800855388152</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01584891937027333</v>
+        <v>0.01584442650897255</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.933371115153296</v>
+        <v>2.93295642887918</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01280439670498179</v>
+        <v>0.01280078458333866</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.920566718448315</v>
+        <v>2.920155644295841</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01432244919873327</v>
+        <v>0.01431842755322066</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.906244269249581</v>
+        <v>2.90583721674262</v>
       </c>
       <c r="B93" t="n">
-        <v>0.013376143825234</v>
+        <v>0.01337240574639464</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.892868125424347</v>
+        <v>2.892464810996226</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01325357910905867</v>
+        <v>0.01324906329844655</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.879614546315289</v>
+        <v>2.879215747697779</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01866744694372446</v>
+        <v>0.01866311181294744</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.860947099371564</v>
+        <v>2.860552635884832</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01803747234140696</v>
+        <v>0.01803251439552156</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.842909627030157</v>
+        <v>2.84252012148931</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01241466686795878</v>
+        <v>0.01241127267287556</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.830494960162198</v>
+        <v>2.830108848816435</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01230671138719419</v>
+        <v>0.01230336136567223</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.818188248775004</v>
+        <v>2.817805487450762</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01674763595426754</v>
+        <v>0.01674310050864314</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.801440612820737</v>
+        <v>2.801062386942119</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01542784563862964</v>
+        <v>0.01542369152357548</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.786012767182107</v>
+        <v>2.785638695418544</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01414753194360641</v>
+        <v>0.01414374272657692</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.771865235238501</v>
+        <v>2.771494952691967</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01583711272753829</v>
+        <v>0.01583289385968412</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.756028122510962</v>
+        <v>2.755662058832283</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0109427860431075</v>
+        <v>0.01093988510015231</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.745085336467855</v>
+        <v>2.74472217373213</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01157598335557664</v>
+        <v>0.01157292711105429</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.733509353112278</v>
+        <v>2.733149246621076</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01362136897901678</v>
+        <v>0.01361778925680213</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.719887984133261</v>
+        <v>2.719531457364274</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0194755231339685</v>
+        <v>0.01947043598519071</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.700412460999293</v>
+        <v>2.700061021379083</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01538089442568058</v>
+        <v>0.01537690265483427</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.685031566573612</v>
+        <v>2.684684118724249</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01761019748758574</v>
+        <v>0.01760565514280499</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.667421369086027</v>
+        <v>2.667078463581444</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0156871481642149</v>
+        <v>0.01568312701464558</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.651734220921812</v>
+        <v>2.651395336566798</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0208531493744748</v>
+        <v>0.02084784071648693</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.630881071547337</v>
+        <v>2.630547495850311</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01096626069732665</v>
+        <v>0.01096348579110895</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.61991481085001</v>
+        <v>2.619584010059202</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01218696584500867</v>
+        <v>0.01218389564648525</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.607727845005002</v>
+        <v>2.607400114412717</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01369748706772267</v>
+        <v>0.01369405341445695</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.594030357937279</v>
+        <v>2.59370606099826</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01291226920360122</v>
+        <v>0.01290904894180889</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.581118088733678</v>
+        <v>2.580797012056451</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01214765501439974</v>
+        <v>0.0121446401114782</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.568970433719278</v>
+        <v>2.568652371944973</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01108811472270466</v>
+        <v>0.01108537519870989</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.557882318996573</v>
+        <v>2.557566996746263</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01723191249250844</v>
+        <v>0.01722832387507367</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.540650406504065</v>
+        <v>2.54033867287119</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01053763684780851</v>
+        <v>0.01053441647552811</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.530112769656256</v>
+        <v>2.529804256395662</v>
       </c>
       <c r="B119" t="n">
-        <v>0.009837152314744024</v>
+        <v>0.009834758106468833</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.520275617341512</v>
+        <v>2.519969498289193</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01279643380682449</v>
+        <v>0.01279333331098398</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.507479183534688</v>
+        <v>2.507176164978209</v>
       </c>
       <c r="B121" t="inlineStr"/>
     </row>
